--- a/data/pca/factorExposure/factorExposure_2012-08-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-07.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.003872014557516418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001837608476688524</v>
+      </c>
+      <c r="C2">
+        <v>0.02902457320463605</v>
+      </c>
+      <c r="D2">
+        <v>-0.004112428096221342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0004932587800944268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006643981486426368</v>
+      </c>
+      <c r="C4">
+        <v>0.08383862292665024</v>
+      </c>
+      <c r="D4">
+        <v>-0.06422850479187005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005398458300836361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01490740065578073</v>
+      </c>
+      <c r="C6">
+        <v>0.1187598778866032</v>
+      </c>
+      <c r="D6">
+        <v>-0.01937701359507887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.000105797649330211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004134868573760237</v>
+      </c>
+      <c r="C7">
+        <v>0.05851703235768527</v>
+      </c>
+      <c r="D7">
+        <v>-0.03232920749288513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001868963985388742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005164860162447806</v>
+      </c>
+      <c r="C8">
+        <v>0.03655704303223792</v>
+      </c>
+      <c r="D8">
+        <v>-0.03689001270761046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0004085224882904949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005967613721893568</v>
+      </c>
+      <c r="C9">
+        <v>0.07359853934499817</v>
+      </c>
+      <c r="D9">
+        <v>-0.07002023086879514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0004534083341396939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.00180980769843867</v>
+      </c>
+      <c r="C10">
+        <v>0.05022293924026524</v>
+      </c>
+      <c r="D10">
+        <v>0.1850406977066855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.0003416348562952844</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.006637103949667222</v>
+      </c>
+      <c r="C11">
+        <v>0.08207858596371585</v>
+      </c>
+      <c r="D11">
+        <v>-0.0675930570049177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0004220361612083402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004827763625058849</v>
+      </c>
+      <c r="C12">
+        <v>0.06725988506703975</v>
+      </c>
+      <c r="D12">
+        <v>-0.04859142810526666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002596651653455167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009680731173854075</v>
+      </c>
+      <c r="C13">
+        <v>0.0713258372226251</v>
+      </c>
+      <c r="D13">
+        <v>-0.05700164848705305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001616049507864287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0005486821988296165</v>
+      </c>
+      <c r="C14">
+        <v>0.0433198978823796</v>
+      </c>
+      <c r="D14">
+        <v>-0.01222117685562865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.002548611050304435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.00683233290539534</v>
+      </c>
+      <c r="C15">
+        <v>0.04075225923382057</v>
+      </c>
+      <c r="D15">
+        <v>-0.02517642117608907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0006921725737854891</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005647141359612333</v>
+      </c>
+      <c r="C16">
+        <v>0.06676785013160454</v>
+      </c>
+      <c r="D16">
+        <v>-0.05760993507123523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.003306808972461956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.00918149929031638</v>
+      </c>
+      <c r="C20">
+        <v>0.06558301444179858</v>
+      </c>
+      <c r="D20">
+        <v>-0.049134636396834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005571595790731017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.008967552776184069</v>
+      </c>
+      <c r="C21">
+        <v>0.01997121719890855</v>
+      </c>
+      <c r="D21">
+        <v>-0.03862681834251802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01982828886418709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007468370669305966</v>
+      </c>
+      <c r="C22">
+        <v>0.08570658661002907</v>
+      </c>
+      <c r="D22">
+        <v>-0.1162493709455961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0195170885263884</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007196152429557161</v>
+      </c>
+      <c r="C23">
+        <v>0.08610897971466673</v>
+      </c>
+      <c r="D23">
+        <v>-0.1173631786655555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.0001830498599472794</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.006372574941585861</v>
+      </c>
+      <c r="C24">
+        <v>0.07835231331572026</v>
+      </c>
+      <c r="D24">
+        <v>-0.06619332582410394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002315534219538028</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003937982988014601</v>
+      </c>
+      <c r="C25">
+        <v>0.07970103721348983</v>
+      </c>
+      <c r="D25">
+        <v>-0.06343123539404055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.0006632477056331519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003796452154469957</v>
+      </c>
+      <c r="C26">
+        <v>0.03985626701615501</v>
+      </c>
+      <c r="D26">
+        <v>-0.021171277202626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006335854909479833</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002703513220031061</v>
+      </c>
+      <c r="C28">
+        <v>0.1000771339610872</v>
+      </c>
+      <c r="D28">
+        <v>0.326355934394297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-4.642483526908284e-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00333789191310335</v>
+      </c>
+      <c r="C29">
+        <v>0.04734893987390648</v>
+      </c>
+      <c r="D29">
+        <v>-0.009561892255590475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002272002315269217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009648819877552329</v>
+      </c>
+      <c r="C30">
+        <v>0.1423280601557546</v>
+      </c>
+      <c r="D30">
+        <v>-0.107139756588513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002505877167341557</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006487823221886941</v>
+      </c>
+      <c r="C31">
+        <v>0.04425092172615969</v>
+      </c>
+      <c r="D31">
+        <v>-0.02847593491368777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006491503611273055</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004382145690871069</v>
+      </c>
+      <c r="C32">
+        <v>0.03748842338227261</v>
+      </c>
+      <c r="D32">
+        <v>-0.01722479294695399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.001193182624608318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009409170469074692</v>
+      </c>
+      <c r="C33">
+        <v>0.09203313968805953</v>
+      </c>
+      <c r="D33">
+        <v>-0.06112102394134368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0004003047666449342</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.005138831654100555</v>
+      </c>
+      <c r="C34">
+        <v>0.05998935326766545</v>
+      </c>
+      <c r="D34">
+        <v>-0.05717286685014057</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001546090097155915</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004996252129147781</v>
+      </c>
+      <c r="C35">
+        <v>0.0409365407311395</v>
+      </c>
+      <c r="D35">
+        <v>-0.01388744740683359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004923281436126077</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001629493422891586</v>
+      </c>
+      <c r="C36">
+        <v>0.0256379390652376</v>
+      </c>
+      <c r="D36">
+        <v>-0.02015536697292764</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.003949840365564941</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008678791928189379</v>
+      </c>
+      <c r="C38">
+        <v>0.03973471114896481</v>
+      </c>
+      <c r="D38">
+        <v>-0.01217148783179606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.009695147179931713</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0009485836153317927</v>
+      </c>
+      <c r="C39">
+        <v>0.1150450372462473</v>
+      </c>
+      <c r="D39">
+        <v>-0.08322972558983689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00285803851375686</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.00272639121908767</v>
+      </c>
+      <c r="C40">
+        <v>0.09032707290285158</v>
+      </c>
+      <c r="D40">
+        <v>-0.01561211769725626</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.003327095146891199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007761356723376688</v>
+      </c>
+      <c r="C41">
+        <v>0.04178021991311288</v>
+      </c>
+      <c r="D41">
+        <v>-0.04451613182894042</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001266590079136534</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004061978846435314</v>
+      </c>
+      <c r="C43">
+        <v>0.05407476561959383</v>
+      </c>
+      <c r="D43">
+        <v>-0.02693572000188193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.006931318110793496</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002179666405651547</v>
+      </c>
+      <c r="C44">
+        <v>0.1048679846457464</v>
+      </c>
+      <c r="D44">
+        <v>-0.06264582217161559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002075666618630478</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.0005658860168934844</v>
+      </c>
+      <c r="C46">
+        <v>0.03266300047903679</v>
+      </c>
+      <c r="D46">
+        <v>-0.03389460753918062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0001370462384550938</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.003253139222909052</v>
+      </c>
+      <c r="C47">
+        <v>0.03515685202775327</v>
+      </c>
+      <c r="D47">
+        <v>-0.01966585542431385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004873894685889671</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007510648870649673</v>
+      </c>
+      <c r="C48">
+        <v>0.03290081265711998</v>
+      </c>
+      <c r="D48">
+        <v>-0.0270941848981132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.006704453042675971</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01879378352625284</v>
+      </c>
+      <c r="C49">
+        <v>0.1874793412336788</v>
+      </c>
+      <c r="D49">
+        <v>-0.01161776745638706</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0001613024958519016</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004269021608165984</v>
+      </c>
+      <c r="C50">
+        <v>0.04267585318017292</v>
+      </c>
+      <c r="D50">
+        <v>-0.03755454080929173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-1.578528777620448e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003896818169814433</v>
+      </c>
+      <c r="C51">
+        <v>0.02776225064378299</v>
+      </c>
+      <c r="D51">
+        <v>-0.02381307527818471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.009754544096875201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02210118371320443</v>
+      </c>
+      <c r="C53">
+        <v>0.1719407818814291</v>
+      </c>
+      <c r="D53">
+        <v>-0.02021716122040431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003897519641292368</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009535187837698677</v>
+      </c>
+      <c r="C54">
+        <v>0.0571710090373518</v>
+      </c>
+      <c r="D54">
+        <v>-0.03908123942300321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.002605990039440067</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.0103478663264021</v>
+      </c>
+      <c r="C55">
+        <v>0.1090151330935806</v>
+      </c>
+      <c r="D55">
+        <v>-0.03271900959978701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.009045671265723044</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02074612896823932</v>
+      </c>
+      <c r="C56">
+        <v>0.1750209083283703</v>
+      </c>
+      <c r="D56">
+        <v>-0.01483705866939639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.00146276288357366</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01725217497735921</v>
+      </c>
+      <c r="C58">
+        <v>0.106845053930979</v>
+      </c>
+      <c r="D58">
+        <v>-0.05705558544720932</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002253612697404826</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.00923231660992364</v>
+      </c>
+      <c r="C59">
+        <v>0.166696901851878</v>
+      </c>
+      <c r="D59">
+        <v>0.3500897301772686</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.009171113070976058</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02613345474517744</v>
+      </c>
+      <c r="C60">
+        <v>0.224907674842275</v>
+      </c>
+      <c r="D60">
+        <v>-0.01870253324874834</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.008896194265701606</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001872586923109156</v>
+      </c>
+      <c r="C61">
+        <v>0.09557555022315255</v>
+      </c>
+      <c r="D61">
+        <v>-0.06067665261029111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1500449245337951</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1546418572595166</v>
+      </c>
+      <c r="C62">
+        <v>0.1038490982402522</v>
+      </c>
+      <c r="D62">
+        <v>-0.01691765173027595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001443040882500608</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006514911121110113</v>
+      </c>
+      <c r="C63">
+        <v>0.05371765867804013</v>
+      </c>
+      <c r="D63">
+        <v>-0.03251514806134246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01055264217324024</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01745721873538606</v>
+      </c>
+      <c r="C64">
+        <v>0.1079813161732935</v>
+      </c>
+      <c r="D64">
+        <v>-0.05158802592676262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008516723464167392</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01753596565618418</v>
+      </c>
+      <c r="C65">
+        <v>0.1183841352559627</v>
+      </c>
+      <c r="D65">
+        <v>-0.02113391678291821</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.0002493235777548321</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01328042407247755</v>
+      </c>
+      <c r="C66">
+        <v>0.1634360338489442</v>
+      </c>
+      <c r="D66">
+        <v>-0.1159992187911717</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.007656350063170273</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01527444711399698</v>
+      </c>
+      <c r="C67">
+        <v>0.0726382184509336</v>
+      </c>
+      <c r="D67">
+        <v>-0.02503157600432802</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004551484981226546</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005351422693563925</v>
+      </c>
+      <c r="C68">
+        <v>0.08141163352388658</v>
+      </c>
+      <c r="D68">
+        <v>0.2619446072695648</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.0003017302958133602</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006462165893426308</v>
+      </c>
+      <c r="C69">
+        <v>0.05191790105321369</v>
+      </c>
+      <c r="D69">
+        <v>-0.03630280703395396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001698255869444331</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002695622455817369</v>
+      </c>
+      <c r="C70">
+        <v>0.008921328322674449</v>
+      </c>
+      <c r="D70">
+        <v>0.001669482007665514</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0004549360329957651</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004257521329073425</v>
+      </c>
+      <c r="C71">
+        <v>0.08648258260070167</v>
+      </c>
+      <c r="D71">
+        <v>0.3034623573947496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.006990305242977556</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01838892266074907</v>
+      </c>
+      <c r="C72">
+        <v>0.1571303983095934</v>
+      </c>
+      <c r="D72">
+        <v>-0.01023788265469945</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01162638119711846</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03149887249798026</v>
+      </c>
+      <c r="C73">
+        <v>0.2811962127065794</v>
+      </c>
+      <c r="D73">
+        <v>-0.05549643072267728</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00501827935400639</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001856780782480537</v>
+      </c>
+      <c r="C74">
+        <v>0.1035424213387862</v>
+      </c>
+      <c r="D74">
+        <v>-0.03135417657680736</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.0008185073529835375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01205489006658663</v>
+      </c>
+      <c r="C75">
+        <v>0.1200532948040291</v>
+      </c>
+      <c r="D75">
+        <v>-0.0260623138423572</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.0118767625177864</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02232731233789095</v>
+      </c>
+      <c r="C76">
+        <v>0.1467173587470291</v>
+      </c>
+      <c r="D76">
+        <v>-0.0549950308984589</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.008828111493821393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02065173616228259</v>
+      </c>
+      <c r="C77">
+        <v>0.1092611636522776</v>
+      </c>
+      <c r="D77">
+        <v>-0.04660578356587838</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005359240113454073</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01446455052578433</v>
+      </c>
+      <c r="C78">
+        <v>0.1016363364221126</v>
+      </c>
+      <c r="D78">
+        <v>-0.07863516178606345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02853260978610833</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03952170439983645</v>
+      </c>
+      <c r="C79">
+        <v>0.1564103095605617</v>
+      </c>
+      <c r="D79">
+        <v>-0.0293998708632429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006703972675821298</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009748398877577695</v>
+      </c>
+      <c r="C80">
+        <v>0.03922814434473106</v>
+      </c>
+      <c r="D80">
+        <v>-0.03072530683510656</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.006476555786060106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01670237054398608</v>
+      </c>
+      <c r="C81">
+        <v>0.1311476567454167</v>
+      </c>
+      <c r="D81">
+        <v>-0.03476347005741335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.008529530089785744</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02010866672084443</v>
+      </c>
+      <c r="C82">
+        <v>0.1370270338839079</v>
+      </c>
+      <c r="D82">
+        <v>-0.03572426757457874</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003078146362013574</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01233096072265291</v>
+      </c>
+      <c r="C83">
+        <v>0.06417340457660335</v>
+      </c>
+      <c r="D83">
+        <v>-0.04544918389045253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.003648088584256096</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.007128305250817504</v>
+      </c>
+      <c r="C84">
+        <v>0.03514170946590706</v>
+      </c>
+      <c r="D84">
+        <v>-0.01323452716894122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01998260308589645</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.0292292531080244</v>
+      </c>
+      <c r="C85">
+        <v>0.1243431120559043</v>
+      </c>
+      <c r="D85">
+        <v>-0.03929762942060196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003075018859241355</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003873583960009412</v>
+      </c>
+      <c r="C86">
+        <v>0.0500327664422066</v>
+      </c>
+      <c r="D86">
+        <v>-0.02225624376346852</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.002938998608686512</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01221874719176838</v>
+      </c>
+      <c r="C87">
+        <v>0.1297743952548522</v>
+      </c>
+      <c r="D87">
+        <v>-0.07097851584655622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008423824641959824</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003039848408353703</v>
+      </c>
+      <c r="C88">
+        <v>0.06371686709051276</v>
+      </c>
+      <c r="D88">
+        <v>-0.02734026417102089</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01105839658913932</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003124689268355446</v>
+      </c>
+      <c r="C89">
+        <v>0.1307919615812771</v>
+      </c>
+      <c r="D89">
+        <v>0.3223467739590824</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001379849866284943</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.004740893522034303</v>
+      </c>
+      <c r="C90">
+        <v>0.1131113576346909</v>
+      </c>
+      <c r="D90">
+        <v>0.3153425591180011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001880789462171197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.0107851561186267</v>
+      </c>
+      <c r="C91">
+        <v>0.09838178574720266</v>
+      </c>
+      <c r="D91">
+        <v>-0.02667086163243647</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005637591128138769</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0009905974803573511</v>
+      </c>
+      <c r="C92">
+        <v>0.1256902918480742</v>
+      </c>
+      <c r="D92">
+        <v>0.3268420322850525</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001285034250858584</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.002907359619402895</v>
+      </c>
+      <c r="C93">
+        <v>0.102173288207064</v>
+      </c>
+      <c r="D93">
+        <v>0.3004336003995124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01118739191767538</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02195195319730579</v>
+      </c>
+      <c r="C94">
+        <v>0.1371503956164667</v>
+      </c>
+      <c r="D94">
+        <v>-0.05332917657854114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.008339955459469845</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01718897281734354</v>
+      </c>
+      <c r="C95">
+        <v>0.1229044155809899</v>
+      </c>
+      <c r="D95">
+        <v>-0.06622363046623073</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01827526213491308</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03801645226087329</v>
+      </c>
+      <c r="C97">
+        <v>0.2233028376464217</v>
+      </c>
+      <c r="D97">
+        <v>0.005663403565557311</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.0134225778891212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.04006339060975738</v>
+      </c>
+      <c r="C98">
+        <v>0.2626392267194255</v>
+      </c>
+      <c r="D98">
+        <v>-0.03260232517637724</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.986315100081914</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9801617544193334</v>
+      </c>
+      <c r="C99">
+        <v>-0.1232370545773745</v>
+      </c>
+      <c r="D99">
+        <v>0.02619147184179671</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-6.985597844306094e-05</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003329827856907054</v>
+      </c>
+      <c r="C101">
+        <v>0.04752928117046046</v>
+      </c>
+      <c r="D101">
+        <v>-0.01021750979717122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
